--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53184A10-6ED3-8B4C-905F-DAC7DDD08152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B19B17-2A51-5749-8B21-A94AA9262AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" activeTab="2" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
+    <workbookView xWindow="-7520" yWindow="-28280" windowWidth="51200" windowHeight="28300" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxColoringCombo" sheetId="1" r:id="rId1"/>
-    <sheet name="MaxColoringMiss" sheetId="3" r:id="rId2"/>
-    <sheet name="TotalRoomCleaning" sheetId="2" r:id="rId3"/>
+    <sheet name="TotalRoomCleaning" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -103,38 +102,36 @@
     <t>Sprites/su/su_00_000</t>
   </si>
   <si>
-    <t>\스스로도 놀랄만한 깜찍한 초밥을 만든다.</t>
-  </si>
-  <si>
-    <t>maxSushiLevel</t>
-  </si>
-  <si>
-    <t>CgkIv975x88TEAIQAQ</t>
-  </si>
-  <si>
-    <t>초밥키우기 시작</t>
-  </si>
-  <si>
-    <t>레벨 1 초밥(밥풀뭉치)을 발견한다.</t>
-  </si>
-  <si>
-    <t>trophy_1.png</t>
-  </si>
-  <si>
     <t>[AchievementData_MaxColoringCombo]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>\색칠 시작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[AchievementData_TotalRoomCleaning]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>[AchievementData_MaxColoringMiss]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>maxColoringCombo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\색칠 50 콤보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\50번 연속 색칠 성공, 대단한 집중력!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalRoomCleaning</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\청소 시작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\잔해를 치우기 시작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -259,21 +256,7 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -614,16 +597,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D02887-B835-DD4B-A071-60CE7AA95FB0}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
       <c r="A1" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -700,19 +683,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -726,24 +709,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="5" t="str">
-        <f>L3</f>
-        <v>CgkIv975x88TEAIQAQ</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
@@ -756,7 +728,7 @@
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +737,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="cellIs" priority="8" operator="equal">
@@ -773,7 +745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="equal">
@@ -785,19 +757,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE42D77-A956-B04A-A782-DAFE4FB09F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A42469-A9EC-9C4C-86AF-729A5784E066}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -874,13 +846,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -900,24 +872,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="5" t="str">
-        <f>L3</f>
-        <v>CgkIv975x88TEAIQAQ</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
@@ -939,192 +900,18 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal">
+    <cfRule type="cellIs" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A42469-A9EC-9C4C-86AF-729A5784E066}">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="1"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A3" s="8">
-        <v>300001</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <f>R3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <f>I3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="5" t="str">
-        <f>L3</f>
-        <v>CgkIv975x88TEAIQAQ</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <f t="shared" ref="R3" si="0">_xlfn.CEILING.MATH(POWER(Q3,S3))</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal">
+    <cfRule type="cellIs" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B19B17-2A51-5749-8B21-A94AA9262AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1434F5-E701-8D4D-BF4A-CDFCE0EECC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7520" yWindow="-28280" windowWidth="51200" windowHeight="28300" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
   <sheets>
-    <sheet name="MaxColoringCombo" sheetId="1" r:id="rId1"/>
-    <sheet name="TotalRoomCleaning" sheetId="2" r:id="rId2"/>
+    <sheet name="MaxBlackLevel" sheetId="2" r:id="rId1"/>
+    <sheet name="MaxColoringCombo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>[AchievementData_TotalRoomCleaning]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>maxColoringCombo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -126,11 +122,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\청소 시작</t>
+    <t>[AchievementData_MaxBlackLevel]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>\나는야 화가!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\잔해를 치우기 시작</t>
+    <t>\채색의 달인이 되었다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -594,19 +594,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D02887-B835-DD4B-A071-60CE7AA95FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A42469-A9EC-9C4C-86AF-729A5784E066}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
       <c r="A1" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -683,13 +683,176 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <f>R3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3" si="0">_xlfn.CEILING.MATH(POWER(Q3,S3))</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" ref="T3" si="1">G3-F3</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D02887-B835-DD4B-A071-60CE7AA95FB0}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="1"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="14">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="14">
+      <c r="A3" s="8">
+        <v>200001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -754,167 +917,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A42469-A9EC-9C4C-86AF-729A5784E066}">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="1"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A3" s="8">
-        <v>200001</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <f>R3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <f>I3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <f t="shared" ref="R3" si="0">_xlfn.CEILING.MATH(POWER(Q3,S3))</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1434F5-E701-8D4D-BF4A-CDFCE0EECC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A0ADD-1C60-9547-A685-48CE84E53E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>totalRoomCleaning</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[AchievementData_MaxBlackLevel]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>\채색의 달인이 되었다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxBlackLevel</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -599,14 +599,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -683,13 +683,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -753,6 +753,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -762,7 +763,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -916,5 +917,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A0ADD-1C60-9547-A685-48CE84E53E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA8D29-F912-234E-93BE-32A14EC20E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" activeTab="1" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxBlackLevel" sheetId="2" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\50번 연속 색칠 성공, 대단한 집중력!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[AchievementData_MaxBlackLevel]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -131,6 +127,10 @@
   </si>
   <si>
     <t>maxBlackLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\50번 연속 색칠 성공! 대단한 집중력!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -597,16 +597,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A42469-A9EC-9C4C-86AF-729A5784E066}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
       <c r="A1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -683,13 +683,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -761,9 +761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D02887-B835-DD4B-A071-60CE7AA95FB0}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -850,7 +850,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>

--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA8D29-F912-234E-93BE-32A14EC20E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B945E-EA62-A741-B1CD-C2C886BDFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" activeTab="1" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -729,6 +729,170 @@
       <c r="T3" s="7">
         <f t="shared" ref="T3" si="1">G3-F3</f>
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D02887-B835-DD4B-A071-60CE7AA95FB0}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
+      <c r="A1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="1"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="14">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="14">
+      <c r="A3" s="8">
+        <v>200001</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <f>R3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <f>I3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3" si="0">_xlfn.CEILING.MATH(POWER(Q3,S3))</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" ref="T3" si="1">G3-F3</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -755,168 +919,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D02887-B835-DD4B-A071-60CE7AA95FB0}">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="1"/>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="14">
-      <c r="A3" s="8">
-        <v>200001</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>50</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <f>R3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <f>I3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
-        <f t="shared" ref="R3" si="0">_xlfn.CEILING.MATH(POWER(Q3,S3))</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B945E-EA62-A741-B1CD-C2C886BDFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57C5A3-E83C-B24C-B26C-A8E760651951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" activeTab="1" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\색칠 50 콤보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[AchievementData_MaxBlackLevel]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -130,7 +126,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>\50번 연속 색칠 성공! 대단한 집중력!</t>
+    <t>\색칠 {1} 콤보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\{1}번 연속 색칠 성공! 대단한 집중력!</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -599,14 +599,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="14">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -683,19 +683,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -847,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57C5A3-E83C-B24C-B26C-A8E760651951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C23D234-1363-E941-A695-1D2F5F800D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" activeTab="1" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3" si="1">G3-F3</f>
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Achievement.xlsx
+++ b/Data/Achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterlee/git/black/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C23D234-1363-E941-A695-1D2F5F800D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5709CD9-B015-B042-8D00-BD2237E9FBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34680" windowHeight="21900" activeTab="1" xr2:uid="{95996864-557C-7E43-BCDA-70E85B31438D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -256,7 +256,14 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -737,7 +744,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="cellIs" priority="8" operator="equal">
@@ -745,7 +752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" operator="equal">
@@ -759,11 +766,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D02887-B835-DD4B-A071-60CE7AA95FB0}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -859,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -892,7 +899,63 @@
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3" si="1">G3-F3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="14">
+      <c r="A4" s="8">
+        <v>200002</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4">
         <v>50</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <f>R4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <f>I4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" ref="R4" si="2">_xlfn.CEILING.MATH(POWER(Q4,S4))</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" ref="T4" si="3">G4-F4</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -901,6 +964,14 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -908,11 +979,11 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal">
+    <cfRule type="cellIs" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
